--- a/Pranita/TestingAutomationTrainingAssignments_PranitaK.xlsx
+++ b/Pranita/TestingAutomationTrainingAssignments_PranitaK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PranitaK\PranitaK_MyFiles\SeleniumTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PranitaK\MyProjects\SeleniumTraining\jiemactual\Pranita\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Assignment-5(10 April)" sheetId="8" r:id="rId2"/>
-    <sheet name="Assignment-4(9 April)" sheetId="6" r:id="rId3"/>
-    <sheet name="Assignment-3(8 April)" sheetId="4" r:id="rId4"/>
-    <sheet name="Assignment-2(7 April)" sheetId="3" r:id="rId5"/>
-    <sheet name="Assignment-1(6 April)" sheetId="2" r:id="rId6"/>
+    <sheet name="Assignment-6(23 April)" sheetId="9" r:id="rId2"/>
+    <sheet name="Assignment-5(10 April)" sheetId="8" r:id="rId3"/>
+    <sheet name="Assignment-4(9 April)" sheetId="6" r:id="rId4"/>
+    <sheet name="Assignment-3(8 April)" sheetId="4" r:id="rId5"/>
+    <sheet name="Assignment-2(7 April)" sheetId="3" r:id="rId6"/>
+    <sheet name="Assignment-1(6 April)" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
     <author>Pranita</author>
   </authors>
   <commentList>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="438">
   <si>
     <t>Document Management Information</t>
   </si>
@@ -4080,6 +4081,132 @@
   </si>
   <si>
     <t>If the class itself is Private, then what's the use of using a class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Reverse a String using reversal logic
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Find how many words and letters in a string.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Find how many specific chars in string and occurrences of each char
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Modify a sentence in such a way that first letter of every word should be capital
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Create a random String of 5 chars (use google to solve this)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Create Date as String  (use google to solve this)
+</t>
+  </si>
+  <si>
+    <t>2) Both StringBuffer and StringBuilder represents mutable String which means you can add/remove characters, substring without creating new objects.</t>
+  </si>
+  <si>
+    <t>6) Because of synchronization StringBuffer is considered thread safe e.g. multiple threads can call its method without compromising internal data structure but StringBuilder is not synchronized hence not thread safe. See The Complete Java Masterclass for more details.</t>
+  </si>
+  <si>
+    <t>7) Another side effect of synchronization is speed. Since StringBuffer is synchronized its lot slower than StringBuilder.</t>
+  </si>
+  <si>
+    <t>8) The default length of StringBuffer is 16 characters. You should explicitly define the size of it, especially if you know that size would be less or more than 16 to avoid wasting memory and spending time during resize.</t>
+  </si>
+  <si>
+    <t>9) In general, you should always use StringBuilder for String concatenation and creating dynamic String unless and until you are absolutely sure that you need StringBuffer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Difference  between StringBuffer and StringBuilder
+</t>
+  </si>
+  <si>
+    <t>1) StringBuffer is present in Java and StringBuilder was added in Java 5.</t>
+  </si>
+  <si>
+    <t>3) You can convert a StringBuffer into String by calling toString() method.</t>
+  </si>
+  <si>
+    <t>10) The string concatenation done using + (plus) operator internally uses StringBuffer or StringBuilder depending upon which Java version you are using. For example, if you are running in Java 5 or higher than StringBuilder will be used and for the lower version, StringBuffer will be used.</t>
+  </si>
+  <si>
+    <r>
+      <t>5) StringBuffer is synchronized which means all method which modifies the internal data of StringBuffer is synchronized e.g. append(), insert() and delete(). On contrary, StringBuilder is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> not synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>String Buffer</t>
+  </si>
+  <si>
+    <t>String Builder</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Yes (mutable)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Very slow</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Storage Area</t>
+  </si>
+  <si>
+    <t>Modifiable</t>
+  </si>
+  <si>
+    <t>Thread Safe</t>
+  </si>
+  <si>
+    <r>
+      <t>4) Both StringBuilder and StringBuffer doesn't override </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equals() and hashCode() method because they are mutable and not intended to be used as a key in hash-based collection classes e.g. HashMap, Hashtable, and HashSet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Assignment-6(23 April)</t>
   </si>
 </sst>
 </file>
@@ -4090,7 +4217,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4423,6 +4550,36 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF660099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4746,11 +4903,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -5074,8 +5232,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
@@ -5093,6 +5284,366 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="323850" y="771525"/>
+          <a:ext cx="7248525" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257175" y="5172075"/>
+          <a:ext cx="7248525" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="10315575"/>
+          <a:ext cx="7286625" cy="5743575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="16802100"/>
+          <a:ext cx="7258050" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="309563" y="21978937"/>
+          <a:ext cx="7158038" cy="5895975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="295275" y="28717875"/>
+          <a:ext cx="7286625" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5317,7 +5868,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5539,7 +6090,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6672,7 +7223,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7386,10 +7937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H54"/>
+  <dimension ref="B1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7965,10 +8516,10 @@
     <row r="12" spans="2:8" ht="20.25" customHeight="1">
       <c r="B12" s="98"/>
       <c r="C12" s="6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D12" s="36">
-        <v>43933</v>
+        <v>43947</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>105</v>
@@ -7978,16 +8529,16 @@
         <v>107</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.25" customHeight="1">
       <c r="B13" s="98"/>
       <c r="C13" s="6">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D13" s="36">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>105</v>
@@ -7997,16 +8548,16 @@
         <v>107</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.25" customHeight="1">
       <c r="B14" s="98"/>
       <c r="C14" s="6">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D14" s="36">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="E14" s="89" t="s">
         <v>105</v>
@@ -8016,16 +8567,16 @@
         <v>107</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.25" customHeight="1">
       <c r="B15" s="98"/>
       <c r="C15" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D15" s="36">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="E15" s="89" t="s">
         <v>105</v>
@@ -8035,16 +8586,16 @@
         <v>107</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.25" customHeight="1">
       <c r="B16" s="98"/>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16" s="36">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>105</v>
@@ -8054,26 +8605,36 @@
         <v>107</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.25" customHeight="1">
       <c r="B17" s="98"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="89"/>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36">
+        <v>43927</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>105</v>
+      </c>
       <c r="F17" s="90"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="20.25" customHeight="1">
       <c r="B18" s="98"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" ht="20.25" customHeight="1">
       <c r="B19" s="98"/>
@@ -8093,32 +8654,32 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" ht="19.5" customHeight="1">
+    <row r="21" spans="2:8" ht="20.25" customHeight="1">
       <c r="B21" s="98"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="101"/>
       <c r="F21" s="102"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75">
-      <c r="B22" s="84"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="17"/>
+    <row r="22" spans="2:8" ht="19.5" customHeight="1">
+      <c r="B22" s="98"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" ht="15.75">
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="73"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" ht="15.75">
       <c r="B24" s="70"/>
@@ -8130,61 +8691,62 @@
       <c r="H24" s="73"/>
     </row>
     <row r="25" spans="2:8" ht="15.75">
-      <c r="B25" s="3"/>
-      <c r="C25" s="91" t="s">
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75">
+      <c r="B26" s="3"/>
+      <c r="C26" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="B27" s="3"/>
-      <c r="C27" s="91" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75">
+      <c r="B28" s="3"/>
+      <c r="C28" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
-    </row>
-    <row r="29" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="97"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+    </row>
+    <row r="30" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="2"/>
@@ -8235,12 +8797,12 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="18"/>
@@ -8378,25 +8940,33 @@
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
     </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="B28:H29"/>
+  <mergeCells count="28">
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="B29:H30"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="B11:B23"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="B4:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -8404,6 +8974,7 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
@@ -8415,9 +8986,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AH200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="27" width="4.7109375" style="50"/>
+    <col min="28" max="28" width="4.5703125" style="50" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" style="50" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="50" customWidth="1"/>
+    <col min="31" max="36" width="4.7109375" style="50"/>
+    <col min="37" max="37" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="4.7109375" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:34" s="23" customFormat="1">
+      <c r="A2" s="139" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+    </row>
+    <row r="26" spans="1:34" s="23" customFormat="1">
+      <c r="A26" s="139" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+    </row>
+    <row r="53" spans="1:34" s="23" customFormat="1">
+      <c r="A53" s="139" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="139"/>
+      <c r="P53" s="139"/>
+      <c r="Q53" s="139"/>
+      <c r="R53" s="139"/>
+      <c r="S53" s="139"/>
+      <c r="T53" s="139"/>
+      <c r="U53" s="139"/>
+      <c r="V53" s="139"/>
+      <c r="W53" s="139"/>
+      <c r="X53" s="139"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="139"/>
+      <c r="AA53" s="139"/>
+      <c r="AB53" s="139"/>
+      <c r="AC53" s="139"/>
+      <c r="AD53" s="139"/>
+      <c r="AE53" s="139"/>
+      <c r="AF53" s="139"/>
+      <c r="AG53" s="139"/>
+      <c r="AH53" s="139"/>
+    </row>
+    <row r="87" spans="1:34" s="23" customFormat="1">
+      <c r="A87" s="139" t="s">
+        <v>413</v>
+      </c>
+      <c r="B87" s="139"/>
+      <c r="C87" s="139"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="139"/>
+      <c r="H87" s="139"/>
+      <c r="I87" s="139"/>
+      <c r="J87" s="139"/>
+      <c r="K87" s="139"/>
+      <c r="L87" s="139"/>
+      <c r="M87" s="139"/>
+      <c r="N87" s="139"/>
+      <c r="O87" s="139"/>
+      <c r="P87" s="139"/>
+      <c r="Q87" s="139"/>
+      <c r="R87" s="139"/>
+      <c r="S87" s="139"/>
+      <c r="T87" s="139"/>
+      <c r="U87" s="139"/>
+      <c r="V87" s="139"/>
+      <c r="W87" s="139"/>
+      <c r="X87" s="139"/>
+      <c r="Y87" s="139"/>
+      <c r="Z87" s="139"/>
+      <c r="AA87" s="139"/>
+      <c r="AB87" s="139"/>
+      <c r="AC87" s="139"/>
+      <c r="AD87" s="139"/>
+      <c r="AE87" s="139"/>
+      <c r="AF87" s="139"/>
+      <c r="AG87" s="139"/>
+      <c r="AH87" s="139"/>
+    </row>
+    <row r="113" spans="1:34" s="23" customFormat="1">
+      <c r="A113" s="140" t="s">
+        <v>414</v>
+      </c>
+      <c r="B113" s="139"/>
+      <c r="C113" s="139"/>
+      <c r="D113" s="139"/>
+      <c r="E113" s="139"/>
+      <c r="F113" s="139"/>
+      <c r="G113" s="139"/>
+      <c r="H113" s="139"/>
+      <c r="I113" s="139"/>
+      <c r="J113" s="139"/>
+      <c r="K113" s="139"/>
+      <c r="L113" s="139"/>
+      <c r="M113" s="139"/>
+      <c r="N113" s="139"/>
+      <c r="O113" s="139"/>
+      <c r="P113" s="139"/>
+      <c r="Q113" s="139"/>
+      <c r="R113" s="139"/>
+      <c r="S113" s="139"/>
+      <c r="T113" s="139"/>
+      <c r="U113" s="139"/>
+      <c r="V113" s="139"/>
+      <c r="W113" s="139"/>
+      <c r="X113" s="139"/>
+      <c r="Y113" s="139"/>
+      <c r="Z113" s="139"/>
+      <c r="AA113" s="139"/>
+      <c r="AB113" s="139"/>
+      <c r="AC113" s="139"/>
+      <c r="AD113" s="139"/>
+      <c r="AE113" s="139"/>
+      <c r="AF113" s="139"/>
+      <c r="AG113" s="139"/>
+      <c r="AH113" s="139"/>
+    </row>
+    <row r="149" spans="1:34" s="23" customFormat="1">
+      <c r="A149" s="140" t="s">
+        <v>415</v>
+      </c>
+      <c r="B149" s="139"/>
+      <c r="C149" s="139"/>
+      <c r="D149" s="139"/>
+      <c r="E149" s="139"/>
+      <c r="F149" s="139"/>
+      <c r="G149" s="139"/>
+      <c r="H149" s="139"/>
+      <c r="I149" s="139"/>
+      <c r="J149" s="139"/>
+      <c r="K149" s="139"/>
+      <c r="L149" s="139"/>
+      <c r="M149" s="139"/>
+      <c r="N149" s="139"/>
+      <c r="O149" s="139"/>
+      <c r="P149" s="139"/>
+      <c r="Q149" s="139"/>
+      <c r="R149" s="139"/>
+      <c r="S149" s="139"/>
+      <c r="T149" s="139"/>
+      <c r="U149" s="139"/>
+      <c r="V149" s="139"/>
+      <c r="W149" s="139"/>
+      <c r="X149" s="139"/>
+      <c r="Y149" s="139"/>
+      <c r="Z149" s="139"/>
+      <c r="AA149" s="139"/>
+      <c r="AB149" s="139"/>
+      <c r="AC149" s="139"/>
+      <c r="AD149" s="139"/>
+      <c r="AE149" s="139"/>
+      <c r="AF149" s="139"/>
+      <c r="AG149" s="139"/>
+      <c r="AH149" s="139"/>
+    </row>
+    <row r="152" spans="1:34" ht="18.75" customHeight="1">
+      <c r="B152" s="143"/>
+    </row>
+    <row r="171" spans="1:34" s="23" customFormat="1">
+      <c r="A171" s="140" t="s">
+        <v>421</v>
+      </c>
+      <c r="B171" s="139"/>
+      <c r="C171" s="139"/>
+      <c r="D171" s="139"/>
+      <c r="E171" s="139"/>
+      <c r="F171" s="139"/>
+      <c r="G171" s="139"/>
+      <c r="H171" s="139"/>
+      <c r="I171" s="139"/>
+      <c r="J171" s="139"/>
+      <c r="K171" s="139"/>
+      <c r="L171" s="139"/>
+      <c r="M171" s="139"/>
+      <c r="N171" s="139"/>
+      <c r="O171" s="139"/>
+      <c r="P171" s="139"/>
+      <c r="Q171" s="139"/>
+      <c r="R171" s="139"/>
+      <c r="S171" s="139"/>
+      <c r="T171" s="139"/>
+      <c r="U171" s="139"/>
+      <c r="V171" s="139"/>
+      <c r="W171" s="139"/>
+      <c r="X171" s="139"/>
+      <c r="Y171" s="139"/>
+      <c r="Z171" s="139"/>
+      <c r="AA171" s="139"/>
+      <c r="AB171" s="139"/>
+      <c r="AC171" s="139"/>
+      <c r="AD171" s="139"/>
+      <c r="AE171" s="139"/>
+      <c r="AF171" s="139"/>
+      <c r="AG171" s="139"/>
+      <c r="AH171" s="139"/>
+    </row>
+    <row r="174" spans="1:34">
+      <c r="B174" s="144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34">
+      <c r="B176" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="144" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="144" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="145"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="148"/>
+      <c r="C186" s="149"/>
+      <c r="D186" s="150"/>
+      <c r="E186" s="146" t="s">
+        <v>426</v>
+      </c>
+      <c r="F186" s="146"/>
+      <c r="G186" s="146"/>
+      <c r="H186" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="I186" s="146"/>
+      <c r="J186" s="146"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="B187" s="147" t="s">
+        <v>433</v>
+      </c>
+      <c r="C187" s="147"/>
+      <c r="D187" s="147"/>
+      <c r="E187" s="146" t="s">
+        <v>428</v>
+      </c>
+      <c r="F187" s="146"/>
+      <c r="G187" s="146"/>
+      <c r="H187" s="146" t="s">
+        <v>428</v>
+      </c>
+      <c r="I187" s="146"/>
+      <c r="J187" s="146"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="147" t="s">
+        <v>434</v>
+      </c>
+      <c r="C188" s="147"/>
+      <c r="D188" s="147"/>
+      <c r="E188" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="F188" s="146"/>
+      <c r="G188" s="146"/>
+      <c r="H188" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="I188" s="146"/>
+      <c r="J188" s="146"/>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="B189" s="147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C189" s="147"/>
+      <c r="D189" s="147"/>
+      <c r="E189" s="146" t="s">
+        <v>430</v>
+      </c>
+      <c r="F189" s="146"/>
+      <c r="G189" s="146"/>
+      <c r="H189" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="I189" s="146"/>
+      <c r="J189" s="146"/>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="B190" s="147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C190" s="147"/>
+      <c r="D190" s="147"/>
+      <c r="E190" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="F190" s="146"/>
+      <c r="G190" s="146"/>
+      <c r="H190" s="146" t="s">
+        <v>432</v>
+      </c>
+      <c r="I190" s="146"/>
+      <c r="J190" s="146"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="142"/>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="B192" s="144" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="144" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="144" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="144" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="144"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="A171:AH171"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="H188:J188"/>
+    <mergeCell ref="H189:J189"/>
+    <mergeCell ref="A87:AH87"/>
+    <mergeCell ref="A53:AH53"/>
+    <mergeCell ref="A26:AH26"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A149:AH149"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
@@ -8673,7 +9706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK139"/>
   <sheetViews>
@@ -10296,7 +11329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BL82"/>
   <sheetViews>
@@ -12881,7 +13914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AU82"/>
   <sheetViews>
@@ -14492,7 +15525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B36"/>
   <sheetViews>
